--- a/branches/main/StructureDefinition-hiv-disgnosis-encounter.xlsx
+++ b/branches/main/StructureDefinition-hiv-disgnosis-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T07:57:23+00:00</t>
+    <t>2021-10-01T08:08:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-disgnosis-encounter.xlsx
+++ b/branches/main/StructureDefinition-hiv-disgnosis-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T08:08:42+00:00</t>
+    <t>2021-10-01T08:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-disgnosis-encounter.xlsx
+++ b/branches/main/StructureDefinition-hiv-disgnosis-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T08:12:33+00:00</t>
+    <t>2022-06-22T18:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-disgnosis-encounter.xlsx
+++ b/branches/main/StructureDefinition-hiv-disgnosis-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-22T18:40:24+00:00</t>
+    <t>2022-08-17T09:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1757,45 +1757,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="116.3203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="74.65234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.25" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="74.65625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.25390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="45.671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="92.67578125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="191.12890625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="191.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/branches/main/StructureDefinition-hiv-disgnosis-encounter.xlsx
+++ b/branches/main/StructureDefinition-hiv-disgnosis-encounter.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$75</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="469">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T09:42:33+00:00</t>
+    <t>2022-09-14T08:40:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -281,274 +284,302 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Encounter.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Encounter.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Encounter.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Encounter.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Encounter.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Encounter.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>next-visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-care-next-visit}
+</t>
+  </si>
+  <si>
+    <t>Next Appointment Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Encounter.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifier(s) by which this encounter is known</t>
+  </si>
+  <si>
+    <t>Identifier(s) by which this encounter is known.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>Encounter.status</t>
+  </si>
+  <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +</t>
+  </si>
+  <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.</t>
+  </si>
+  <si>
+    <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Current state of the encounter.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>No clear equivalent in HL7 v2; active/finished could be inferred from PV1-44, PV1-45, PV2-24; inactive could be inferred from PV2-16</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>List of past encounter statuses</t>
+  </si>
+  <si>
+    <t>The status history permits the encounter resource to contain the status history without needing to read through the historical versions of the resource, or even have the server store them.</t>
+  </si>
+  <si>
+    <t>The current status is always found in the current version of the resource, not the status history.</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Encounter.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Encounter.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Encounter.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Encounter.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Encounter.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Encounter.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.extension</t>
   </si>
   <si>
     <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Encounter.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identifier(s) by which this encounter is known</t>
-  </si>
-  <si>
-    <t>Identifier(s) by which this encounter is known.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>Encounter.status</t>
-  </si>
-  <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +</t>
-  </si>
-  <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.</t>
-  </si>
-  <si>
-    <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Current state of the encounter.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>No clear equivalent in HL7 v2; active/finished could be inferred from PV1-44, PV1-45, PV2-24; inactive could be inferred from PV2-16</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>List of past encounter statuses</t>
-  </si>
-  <si>
-    <t>The status history permits the encounter resource to contain the status history without needing to read through the historical versions of the resource, or even have the server store them.</t>
-  </si>
-  <si>
-    <t>The current status is always found in the current version of the resource, not the status history.</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1572,6 +1603,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1748,7 +1794,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM74"/>
+  <dimension ref="A1:AM75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1917,7 +1963,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2026,7 +2072,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>85</v>
       </c>
@@ -2137,7 +2183,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>93</v>
       </c>
@@ -2246,7 +2292,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>99</v>
       </c>
@@ -2357,7 +2403,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>105</v>
       </c>
@@ -2468,7 +2514,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>114</v>
       </c>
@@ -2579,7 +2625,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>122</v>
       </c>
@@ -2690,13 +2736,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>130</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2715,17 +2761,15 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>79</v>
@@ -2762,16 +2806,14 @@
         <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>136</v>
@@ -2792,7 +2834,7 @@
         <v>79</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>79</v>
@@ -2803,43 +2845,41 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>79</v>
       </c>
@@ -2887,7 +2927,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -2896,7 +2936,7 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>137</v>
@@ -2905,7 +2945,7 @@
         <v>79</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>79</v>
@@ -2914,13 +2954,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2933,22 +2973,26 @@
         <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="N11" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>79</v>
       </c>
@@ -2996,7 +3040,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3008,24 +3052,24 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="AL11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" hidden="true">
+      <c r="A12" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3033,32 +3077,30 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>79</v>
@@ -3083,13 +3125,13 @@
         <v>79</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>79</v>
@@ -3107,13 +3149,13 @@
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>79</v>
@@ -3122,21 +3164,21 @@
         <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3144,31 +3186,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3194,13 +3236,13 @@
         <v>79</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>79</v>
@@ -3218,13 +3260,13 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>79</v>
@@ -3233,19 +3275,19 @@
         <v>98</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AL13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>79</v>
-      </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>168</v>
       </c>
@@ -3258,7 +3300,7 @@
         <v>77</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>79</v>
@@ -3270,15 +3312,17 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>79</v>
@@ -3327,25 +3371,25 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>79</v>
@@ -3354,20 +3398,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>79</v>
@@ -3379,17 +3423,15 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>79</v>
@@ -3438,25 +3480,25 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>79</v>
@@ -3465,13 +3507,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3484,26 +3526,24 @@
         <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>79</v>
       </c>
@@ -3551,7 +3591,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3569,7 +3609,7 @@
         <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>79</v>
@@ -3578,41 +3618,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3636,13 +3680,13 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>79</v>
@@ -3660,25 +3704,25 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>79</v>
@@ -3687,9 +3731,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3712,13 +3756,13 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3745,13 +3789,13 @@
         <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>79</v>
@@ -3769,7 +3813,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>86</v>
@@ -3787,7 +3831,7 @@
         <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>79</v>
@@ -3796,9 +3840,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3818,16 +3862,16 @@
         <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3839,46 +3883,46 @@
         <v>79</v>
       </c>
       <c r="R19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>86</v>
@@ -3896,18 +3940,18 @@
         <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3915,10 +3959,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>79</v>
@@ -3927,16 +3971,16 @@
         <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3948,7 +3992,7 @@
         <v>79</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>79</v>
@@ -3963,13 +4007,13 @@
         <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>79</v>
@@ -3987,13 +4031,13 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
@@ -4005,18 +4049,18 @@
         <v>79</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4027,7 +4071,7 @@
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
@@ -4039,13 +4083,13 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4096,25 +4140,25 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>79</v>
@@ -4123,20 +4167,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
@@ -4148,17 +4192,15 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4207,25 +4249,25 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>79</v>
@@ -4234,13 +4276,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4253,26 +4295,24 @@
         <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4320,7 +4360,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4338,7 +4378,7 @@
         <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>79</v>
@@ -4347,41 +4387,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="M24" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4405,13 +4449,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -4429,25 +4473,25 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>79</v>
@@ -4456,9 +4500,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4481,13 +4525,13 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4514,13 +4558,13 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
@@ -4538,7 +4582,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>86</v>
@@ -4556,7 +4600,7 @@
         <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>79</v>
@@ -4565,9 +4609,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4575,10 +4619,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -4587,20 +4631,18 @@
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -4625,37 +4667,37 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="X26" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="AF26" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
@@ -4664,21 +4706,21 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4689,7 +4731,7 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
@@ -4701,15 +4743,17 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -4734,7 +4778,7 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="X27" t="s" s="2">
         <v>222</v>
@@ -4758,13 +4802,13 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
@@ -4773,21 +4817,21 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4807,16 +4851,16 @@
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4843,31 +4887,31 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4882,29 +4926,29 @@
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>86</v>
@@ -4916,20 +4960,18 @@
         <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>237</v>
-      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -4954,13 +4996,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -4978,7 +5020,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4993,32 +5035,32 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AL29" t="s" s="2">
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
@@ -5030,15 +5072,17 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5087,13 +5131,13 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
@@ -5105,22 +5149,22 @@
         <v>246</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5136,7 +5180,7 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>251</v>
@@ -5196,7 +5240,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5214,22 +5258,22 @@
         <v>254</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AM31" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5245,16 +5289,16 @@
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>163</v>
+        <v>259</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5305,7 +5349,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5320,21 +5364,21 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>261</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5345,7 +5389,7 @@
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>79</v>
@@ -5354,16 +5398,16 @@
         <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>169</v>
+        <v>265</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>170</v>
+        <v>266</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5414,47 +5458,47 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>167</v>
+        <v>268</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
@@ -5466,17 +5510,15 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -5525,25 +5567,25 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>79</v>
@@ -5552,13 +5594,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5571,26 +5613,24 @@
         <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
       </c>
@@ -5638,7 +5678,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5656,7 +5696,7 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>79</v>
@@ -5665,13 +5705,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5684,24 +5724,26 @@
         <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>266</v>
+        <v>185</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>267</v>
+        <v>186</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
@@ -5725,13 +5767,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -5749,7 +5791,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>265</v>
+        <v>187</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5761,22 +5803,22 @@
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>271</v>
+        <v>129</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>272</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>273</v>
       </c>
@@ -5789,7 +5831,7 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>79</v>
@@ -5798,10 +5840,10 @@
         <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>274</v>
@@ -5809,7 +5851,9 @@
       <c r="L37" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M37" s="2"/>
+      <c r="M37" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -5834,13 +5878,13 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
@@ -5864,7 +5908,7 @@
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -5873,21 +5917,21 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5907,16 +5951,16 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>279</v>
+        <v>190</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5967,7 +6011,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -5982,19 +6026,19 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>284</v>
+        <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>285</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>286</v>
       </c>
@@ -6007,7 +6051,7 @@
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6082,7 +6126,7 @@
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6091,21 +6135,21 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6116,7 +6160,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>79</v>
@@ -6125,20 +6169,18 @@
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>182</v>
+        <v>295</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6187,13 +6229,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6202,19 +6244,19 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>299</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>300</v>
       </c>
@@ -6239,16 +6281,16 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6313,32 +6355,32 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>305</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6347,19 +6389,19 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>209</v>
+        <v>309</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6385,13 +6427,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>313</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -6409,13 +6451,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -6424,25 +6466,25 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AK42" t="s" s="2">
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6461,16 +6503,16 @@
         <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6496,13 +6538,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -6520,7 +6562,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6535,25 +6577,25 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6572,15 +6614,17 @@
         <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>163</v>
+        <v>327</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -6629,7 +6673,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6644,21 +6688,21 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AL44" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6669,7 +6713,7 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -6678,16 +6722,16 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>169</v>
+        <v>330</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>170</v>
+        <v>331</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6738,25 +6782,25 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>171</v>
+        <v>329</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>167</v>
+        <v>332</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>79</v>
@@ -6765,20 +6809,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -6790,17 +6834,15 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -6849,25 +6891,25 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>79</v>
@@ -6876,13 +6918,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6895,26 +6937,24 @@
         <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -6962,7 +7002,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -6980,7 +7020,7 @@
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>79</v>
@@ -6989,43 +7029,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>329</v>
+        <v>184</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>330</v>
+        <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>331</v>
+        <v>185</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>332</v>
+        <v>186</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7073,44 +7115,44 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>328</v>
+        <v>187</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>334</v>
+        <v>129</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>316</v>
+        <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>336</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>86</v>
@@ -7122,18 +7164,20 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>209</v>
+        <v>338</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7158,13 +7202,13 @@
         <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -7185,7 +7229,7 @@
         <v>336</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>86</v>
@@ -7197,21 +7241,21 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>167</v>
+        <v>342</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7234,13 +7278,13 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>342</v>
+        <v>217</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7267,13 +7311,13 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>79</v>
+        <v>348</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -7291,7 +7335,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7309,7 +7353,7 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>345</v>
+        <v>173</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
@@ -7318,9 +7362,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7331,7 +7375,7 @@
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>79</v>
@@ -7343,17 +7387,15 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -7402,13 +7444,13 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
@@ -7420,7 +7462,7 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
@@ -7429,9 +7471,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7442,7 +7484,7 @@
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>79</v>
@@ -7454,16 +7496,16 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>163</v>
+        <v>355</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7513,13 +7555,13 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>79</v>
@@ -7531,7 +7573,7 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>79</v>
@@ -7540,9 +7582,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7565,15 +7607,17 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>169</v>
+        <v>361</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -7622,7 +7666,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>171</v>
+        <v>360</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7634,13 +7678,13 @@
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>167</v>
+        <v>364</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>79</v>
@@ -7649,20 +7693,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>79</v>
@@ -7674,17 +7718,15 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -7733,25 +7775,25 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>79</v>
@@ -7760,13 +7802,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7779,26 +7821,24 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
@@ -7846,7 +7886,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -7864,7 +7904,7 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>79</v>
@@ -7873,41 +7913,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>361</v>
+        <v>185</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
@@ -7955,36 +7999,36 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>360</v>
+        <v>187</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8007,13 +8051,13 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>365</v>
+        <v>150</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8064,7 +8108,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8082,18 +8126,18 @@
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>368</v>
+        <v>154</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8116,13 +8160,13 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>209</v>
+        <v>373</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8149,31 +8193,31 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE58" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8191,18 +8235,18 @@
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8225,13 +8269,13 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8258,13 +8302,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>213</v>
+        <v>110</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -8282,7 +8326,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8300,18 +8344,18 @@
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>167</v>
+        <v>382</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8322,7 +8366,7 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -8334,20 +8378,16 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N60" t="s" s="2">
         <v>386</v>
       </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -8371,7 +8411,7 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="X60" t="s" s="2">
         <v>387</v>
@@ -8395,13 +8435,13 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
@@ -8413,18 +8453,18 @@
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AL60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM60" t="s" s="2">
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
         <v>390</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8447,16 +8487,20 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -8480,13 +8524,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>110</v>
+        <v>221</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -8504,7 +8548,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8522,18 +8566,18 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8556,13 +8600,13 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8592,10 +8636,10 @@
         <v>110</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -8613,7 +8657,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8631,18 +8675,18 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8653,7 +8697,7 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -8665,13 +8709,13 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>365</v>
+        <v>217</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8698,13 +8742,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>79</v>
+        <v>409</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -8722,13 +8766,13 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
@@ -8740,18 +8784,18 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8774,13 +8818,13 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>209</v>
+        <v>373</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8807,31 +8851,31 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE64" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -8849,18 +8893,18 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8871,7 +8915,7 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>79</v>
@@ -8883,17 +8927,15 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M65" t="s" s="2">
         <v>420</v>
       </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -8918,13 +8960,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -8942,13 +8984,13 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
@@ -8960,18 +9002,18 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>79</v>
+        <v>424</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8982,7 +9024,7 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -8994,15 +9036,17 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>169</v>
+        <v>426</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9051,25 +9095,25 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>171</v>
+        <v>425</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>167</v>
+        <v>429</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>79</v>
@@ -9078,20 +9122,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -9103,17 +9147,15 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9162,25 +9204,25 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>79</v>
@@ -9189,13 +9231,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9208,26 +9250,24 @@
         <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -9275,7 +9315,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9293,7 +9333,7 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>79</v>
@@ -9302,41 +9342,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>426</v>
+        <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>427</v>
+        <v>185</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -9384,36 +9428,36 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>425</v>
+        <v>187</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>283</v>
+        <v>129</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9421,7 +9465,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>86</v>
@@ -9436,17 +9480,15 @@
         <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>106</v>
+        <v>434</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -9471,13 +9513,13 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -9495,10 +9537,10 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>86</v>
@@ -9510,21 +9552,21 @@
         <v>98</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AL70" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AM70" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9547,16 +9589,16 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>209</v>
+        <v>106</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9582,13 +9624,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -9606,7 +9648,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9624,7 +9666,7 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>79</v>
+        <v>446</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>79</v>
@@ -9633,9 +9675,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9658,15 +9700,17 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -9691,13 +9735,13 @@
         <v>79</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>79</v>
+        <v>451</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>79</v>
@@ -9715,7 +9759,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9733,7 +9777,7 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>79</v>
@@ -9742,9 +9786,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9752,7 +9796,7 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>86</v>
@@ -9767,13 +9811,13 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>449</v>
+        <v>190</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9824,7 +9868,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -9839,21 +9883,21 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>452</v>
+        <v>284</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9861,7 +9905,7 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>86</v>
@@ -9876,17 +9920,15 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -9935,7 +9977,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -9950,7 +9992,7 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>459</v>
+        <v>290</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>460</v>
@@ -9959,10 +10001,139 @@
         <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AM75">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI74">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/branches/main/StructureDefinition-hiv-disgnosis-encounter.xlsx
+++ b/branches/main/StructureDefinition-hiv-disgnosis-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T08:40:35+00:00</t>
+    <t>2022-09-14T09:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-disgnosis-encounter.xlsx
+++ b/branches/main/StructureDefinition-hiv-disgnosis-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:10:35+00:00</t>
+    <t>2022-09-19T11:28:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-disgnosis-encounter.xlsx
+++ b/branches/main/StructureDefinition-hiv-disgnosis-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:28:39+00:00</t>
+    <t>2022-09-19T11:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-disgnosis-encounter.xlsx
+++ b/branches/main/StructureDefinition-hiv-disgnosis-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:47:22+00:00</t>
+    <t>2022-10-06T14:49:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
